--- a/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2017-09</t>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2017-10</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -65,58 +65,55 @@
     <t>-</t>
   </si>
   <si>
-    <t>-30.3 %</t>
-  </si>
-  <si>
-    <t>-12.2 %</t>
-  </si>
-  <si>
-    <t>-15.7 %</t>
-  </si>
-  <si>
-    <t>-15.8 %</t>
-  </si>
-  <si>
-    <t>-23.7 %</t>
-  </si>
-  <si>
-    <t>-27.7 %</t>
-  </si>
-  <si>
-    <t>0 %</t>
-  </si>
-  <si>
-    <t>-26.3 %</t>
-  </si>
-  <si>
-    <t>-17.3  %</t>
+    <t>-32.7 %</t>
+  </si>
+  <si>
+    <t>-3.40000000000001 %</t>
+  </si>
+  <si>
+    <t>-8.90000000000001 %</t>
+  </si>
+  <si>
+    <t>-12 %</t>
+  </si>
+  <si>
+    <t>-14.2 %</t>
+  </si>
+  <si>
+    <t>-20.6 %</t>
+  </si>
+  <si>
+    <t>-16.7 %</t>
+  </si>
+  <si>
+    <t>-23.5 %</t>
+  </si>
+  <si>
+    <t>-10.5  %</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>20.6%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
-  </si>
-  <si>
-    <t>7.4%</t>
+    <t>2.9%</t>
+  </si>
+  <si>
+    <t>20.5%</t>
+  </si>
+  <si>
+    <t>55.8%</t>
   </si>
   <si>
     <t>5.2%</t>
   </si>
   <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
+    <t>7.6%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -215,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>554.0</v>
+        <v>539.0</v>
       </c>
       <c r="C3" t="n">
-        <v>386.0</v>
+        <v>363.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-168.0</v>
+        <v>-176.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -235,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2705.0</v>
+        <v>2626.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2375.0</v>
+        <v>2536.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-330.0</v>
+        <v>-90.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -255,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7535.0</v>
+        <v>7557.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6350.0</v>
+        <v>6886.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1185.0</v>
+        <v>-671.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -275,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>720.0</v>
+        <v>732.0</v>
       </c>
       <c r="C6" t="n">
-        <v>606.0</v>
+        <v>644.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-114.0</v>
+        <v>-88.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -295,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1115.0</v>
+        <v>1095.0</v>
       </c>
       <c r="C7" t="n">
-        <v>851.0</v>
+        <v>940.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-264.0</v>
+        <v>-155.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -315,13 +312,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>833.0</v>
+        <v>783.0</v>
       </c>
       <c r="C8" t="n">
-        <v>602.0</v>
+        <v>622.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-231.0</v>
+        <v>-161.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -335,19 +332,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -355,19 +352,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>486.0</v>
+        <v>459.0</v>
       </c>
       <c r="C10" t="n">
-        <v>358.0</v>
+        <v>351.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-128.0</v>
+        <v>-108.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -375,19 +372,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13959.0</v>
+        <v>13797.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11539.0</v>
+        <v>12347.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2420.0</v>
+        <v>-1450.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -17,10 +17,10 @@
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2017-10</t>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2017-11</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -65,52 +65,52 @@
     <t>-</t>
   </si>
   <si>
-    <t>-32.7 %</t>
-  </si>
-  <si>
-    <t>-3.40000000000001 %</t>
-  </si>
-  <si>
-    <t>-8.90000000000001 %</t>
-  </si>
-  <si>
-    <t>-12 %</t>
-  </si>
-  <si>
-    <t>-14.2 %</t>
-  </si>
-  <si>
-    <t>-20.6 %</t>
-  </si>
-  <si>
-    <t>-16.7 %</t>
-  </si>
-  <si>
-    <t>-23.5 %</t>
-  </si>
-  <si>
-    <t>-10.5  %</t>
+    <t>-28.2 %</t>
+  </si>
+  <si>
+    <t>-2 %</t>
+  </si>
+  <si>
+    <t>-8 %</t>
+  </si>
+  <si>
+    <t>-10.7 %</t>
+  </si>
+  <si>
+    <t>-15.9 %</t>
+  </si>
+  <si>
+    <t>-19.9 %</t>
+  </si>
+  <si>
+    <t>-100 %</t>
+  </si>
+  <si>
+    <t>-25.9 %</t>
+  </si>
+  <si>
+    <t>-9.7  %</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>20.5%</t>
-  </si>
-  <si>
-    <t>55.8%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
-  </si>
-  <si>
-    <t>7.6%</t>
-  </si>
-  <si>
-    <t>5%</t>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>20.9%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>5.1%</t>
+  </si>
+  <si>
+    <t>7.3%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
   </si>
   <si>
     <t>2.8%</t>
@@ -212,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>539.0</v>
+        <v>517.0</v>
       </c>
       <c r="C3" t="n">
-        <v>363.0</v>
+        <v>371.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-176.0</v>
+        <v>-146.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -232,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2626.0</v>
+        <v>2657.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2536.0</v>
+        <v>2603.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-90.0</v>
+        <v>-54.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -252,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7557.0</v>
+        <v>7577.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6886.0</v>
+        <v>6971.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-671.0</v>
+        <v>-606.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -272,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>732.0</v>
+        <v>717.0</v>
       </c>
       <c r="C6" t="n">
-        <v>644.0</v>
+        <v>640.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-88.0</v>
+        <v>-77.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -292,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1095.0</v>
+        <v>1085.0</v>
       </c>
       <c r="C7" t="n">
-        <v>940.0</v>
+        <v>912.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-155.0</v>
+        <v>-173.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -312,13 +312,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>783.0</v>
+        <v>744.0</v>
       </c>
       <c r="C8" t="n">
-        <v>622.0</v>
+        <v>596.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-161.0</v>
+        <v>-148.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -332,13 +332,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.0</v>
+        <v>-11.0</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -352,13 +352,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>459.0</v>
+        <v>468.0</v>
       </c>
       <c r="C10" t="n">
-        <v>351.0</v>
+        <v>347.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-108.0</v>
+        <v>-121.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -372,13 +372,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13797.0</v>
+        <v>13776.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12347.0</v>
+        <v>12440.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1450.0</v>
+        <v>-1336.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>

--- a/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/OM2/excel/OM2_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -17,10 +17,10 @@
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2017-11</t>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-12</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -65,55 +65,55 @@
     <t>-</t>
   </si>
   <si>
-    <t>-28.2 %</t>
-  </si>
-  <si>
-    <t>-2 %</t>
-  </si>
-  <si>
-    <t>-8 %</t>
-  </si>
-  <si>
-    <t>-10.7 %</t>
-  </si>
-  <si>
-    <t>-15.9 %</t>
-  </si>
-  <si>
-    <t>-19.9 %</t>
+    <t>-29.4 %</t>
+  </si>
+  <si>
+    <t>-4 %</t>
+  </si>
+  <si>
+    <t>-10.1 %</t>
+  </si>
+  <si>
+    <t>-12.5 %</t>
+  </si>
+  <si>
+    <t>-19.1 %</t>
+  </si>
+  <si>
+    <t>-13.9 %</t>
   </si>
   <si>
     <t>-100 %</t>
   </si>
   <si>
-    <t>-25.9 %</t>
-  </si>
-  <si>
-    <t>-9.7  %</t>
+    <t>-25.7 %</t>
+  </si>
+  <si>
+    <t>-11.3  %</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>20.9%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>5.1%</t>
-  </si>
-  <si>
-    <t>7.3%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
     <t>2.8%</t>
+  </si>
+  <si>
+    <t>20.3%</t>
+  </si>
+  <si>
+    <t>56.5%</t>
+  </si>
+  <si>
+    <t>4.9%</t>
+  </si>
+  <si>
+    <t>7.5%</t>
+  </si>
+  <si>
+    <t>5.2%</t>
+  </si>
+  <si>
+    <t>2.7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -212,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>517.0</v>
+        <v>544.0</v>
       </c>
       <c r="C3" t="n">
-        <v>371.0</v>
+        <v>384.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-146.0</v>
+        <v>-160.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -232,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2657.0</v>
+        <v>2883.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2603.0</v>
+        <v>2767.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.0</v>
+        <v>-116.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -252,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7577.0</v>
+        <v>8566.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6971.0</v>
+        <v>7699.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-606.0</v>
+        <v>-867.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -272,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>717.0</v>
+        <v>766.0</v>
       </c>
       <c r="C6" t="n">
-        <v>640.0</v>
+        <v>670.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-77.0</v>
+        <v>-96.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -292,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1085.0</v>
+        <v>1264.0</v>
       </c>
       <c r="C7" t="n">
-        <v>912.0</v>
+        <v>1023.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173.0</v>
+        <v>-241.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -312,13 +312,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>744.0</v>
+        <v>830.0</v>
       </c>
       <c r="C8" t="n">
-        <v>596.0</v>
+        <v>715.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-148.0</v>
+        <v>-115.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -352,13 +352,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>468.0</v>
+        <v>502.0</v>
       </c>
       <c r="C10" t="n">
-        <v>347.0</v>
+        <v>373.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-121.0</v>
+        <v>-129.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -372,13 +372,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13776.0</v>
+        <v>15366.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12440.0</v>
+        <v>13631.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1336.0</v>
+        <v>-1735.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
